--- a/flowdata_selected.xlsx
+++ b/flowdata_selected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daryly\Documents\Reference\Flowmeter\Error Study (SKL, JRWW)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1804B4-580D-4B64-93C8-9AE4C0CB638F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0D54E-7FB1-44B0-BF85-58865EE6CC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3BCEE1E3-93A0-443D-A61D-66143E7ACE1D}"/>
+    <workbookView xWindow="20370" yWindow="-4890" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3BCEE1E3-93A0-443D-A61D-66143E7ACE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,18 +79,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,12 +110,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDD9C4"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -187,11 +189,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -211,35 +243,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +578,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>407.6</v>
+        <v>407.60199999999998</v>
       </c>
       <c r="D2" s="8">
-        <v>401.4</v>
+        <v>401.36792000000003</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +622,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="10">
-        <v>230.8</v>
-      </c>
-      <c r="C2" s="11">
-        <v>413.3</v>
-      </c>
-      <c r="D2" s="12">
-        <v>177.8</v>
+        <v>230.833</v>
+      </c>
+      <c r="C2" s="9">
+        <v>413.34199999999998</v>
+      </c>
+      <c r="D2" s="11">
+        <v>177.76400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +666,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,13 +690,13 @@
         <v>449.7</v>
       </c>
       <c r="B2" s="10">
-        <v>252.1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>205.2</v>
+        <v>252.096</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>205.15</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +740,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,17 +760,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>463.6</v>
-      </c>
-      <c r="B2" s="14">
-        <v>472.7</v>
-      </c>
-      <c r="C2" s="15">
-        <v>394.4</v>
-      </c>
-      <c r="D2" s="16">
-        <v>385.9</v>
+      <c r="A2" s="12">
+        <v>463.64</v>
+      </c>
+      <c r="B2" s="11">
+        <v>472.67899999999997</v>
+      </c>
+      <c r="C2" s="12">
+        <v>394.43200000000002</v>
+      </c>
+      <c r="D2" s="11">
+        <v>385.90600000000001</v>
       </c>
     </row>
   </sheetData>
